--- a/essensplan/Java-Generator.xlsx
+++ b/essensplan/Java-Generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannes Kainz\Documents\GitHub\home-info\essensplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F76B5EF6-1C60-4844-886D-B97BB0DF49DC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5933A7CB-CA5F-4085-980F-87145DA46263}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{C4B9780C-E6E3-4540-B6DD-E6B2DF04E1D5}"/>
   </bookViews>
@@ -24,14 +24,10 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd/mm/"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -70,8 +66,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -392,16 +390,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="2"/>
+    <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="4" max="4" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="59.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>43831</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="2">
         <v>43839</v>
       </c>
       <c r="D1" t="str">
@@ -414,11 +412,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <f>B1+1</f>
         <v>43840</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <f>A2+6</f>
         <v>43846</v>
       </c>
@@ -432,11 +430,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <f t="shared" ref="A3:A52" si="2">B2+1</f>
         <v>43847</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <f t="shared" ref="B3:B52" si="3">A3+6</f>
         <v>43853</v>
       </c>
@@ -450,11 +448,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <f t="shared" si="2"/>
         <v>43854</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <f t="shared" si="3"/>
         <v>43860</v>
       </c>
@@ -468,11 +466,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <f t="shared" si="2"/>
         <v>43861</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <f t="shared" si="3"/>
         <v>43867</v>
       </c>
@@ -486,11 +484,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <f t="shared" si="2"/>
         <v>43868</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <f t="shared" si="3"/>
         <v>43874</v>
       </c>
@@ -504,11 +502,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <f t="shared" si="2"/>
         <v>43875</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <f t="shared" si="3"/>
         <v>43881</v>
       </c>
@@ -522,11 +520,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <f t="shared" si="2"/>
         <v>43882</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <f t="shared" si="3"/>
         <v>43888</v>
       </c>
@@ -540,11 +538,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <f t="shared" si="2"/>
         <v>43889</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <f t="shared" si="3"/>
         <v>43895</v>
       </c>
@@ -558,11 +556,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <f t="shared" si="2"/>
         <v>43896</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <f t="shared" si="3"/>
         <v>43902</v>
       </c>
@@ -576,11 +574,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <f t="shared" si="2"/>
         <v>43903</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <f t="shared" si="3"/>
         <v>43909</v>
       </c>
@@ -594,11 +592,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <f t="shared" si="2"/>
         <v>43910</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <f t="shared" si="3"/>
         <v>43916</v>
       </c>
@@ -612,11 +610,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <f t="shared" si="2"/>
         <v>43917</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <f t="shared" si="3"/>
         <v>43923</v>
       </c>
@@ -630,11 +628,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <f t="shared" si="2"/>
         <v>43924</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <f t="shared" si="3"/>
         <v>43930</v>
       </c>
@@ -648,11 +646,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <f t="shared" si="2"/>
         <v>43931</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <f t="shared" si="3"/>
         <v>43937</v>
       </c>
@@ -666,11 +664,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <f t="shared" si="2"/>
         <v>43938</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <f t="shared" si="3"/>
         <v>43944</v>
       </c>
@@ -684,11 +682,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <f t="shared" si="2"/>
         <v>43945</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <f t="shared" si="3"/>
         <v>43951</v>
       </c>
@@ -702,11 +700,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <f t="shared" si="2"/>
         <v>43952</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <f t="shared" si="3"/>
         <v>43958</v>
       </c>
@@ -720,11 +718,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <f t="shared" si="2"/>
         <v>43959</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <f t="shared" si="3"/>
         <v>43965</v>
       </c>
@@ -738,11 +736,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <f t="shared" si="2"/>
         <v>43966</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <f t="shared" si="3"/>
         <v>43972</v>
       </c>
@@ -756,11 +754,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <f t="shared" si="2"/>
         <v>43973</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <f t="shared" si="3"/>
         <v>43979</v>
       </c>
@@ -774,11 +772,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <f t="shared" si="2"/>
         <v>43980</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <f t="shared" si="3"/>
         <v>43986</v>
       </c>
@@ -792,11 +790,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <f t="shared" si="2"/>
         <v>43987</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <f t="shared" si="3"/>
         <v>43993</v>
       </c>
@@ -810,11 +808,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <f t="shared" si="2"/>
         <v>43994</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <f t="shared" si="3"/>
         <v>44000</v>
       </c>
@@ -828,11 +826,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <f t="shared" si="2"/>
         <v>44001</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <f t="shared" si="3"/>
         <v>44007</v>
       </c>
@@ -846,11 +844,11 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <f t="shared" si="2"/>
         <v>44008</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <f t="shared" si="3"/>
         <v>44014</v>
       </c>
@@ -864,11 +862,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <f t="shared" si="2"/>
         <v>44015</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <f t="shared" si="3"/>
         <v>44021</v>
       </c>
@@ -882,11 +880,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <f t="shared" si="2"/>
         <v>44022</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <f t="shared" si="3"/>
         <v>44028</v>
       </c>
@@ -900,11 +898,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <f t="shared" si="2"/>
         <v>44029</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <f t="shared" si="3"/>
         <v>44035</v>
       </c>
@@ -918,11 +916,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <f t="shared" si="2"/>
         <v>44036</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <f t="shared" si="3"/>
         <v>44042</v>
       </c>
@@ -936,11 +934,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <f t="shared" si="2"/>
         <v>44043</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <f t="shared" si="3"/>
         <v>44049</v>
       </c>
@@ -954,11 +952,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <f t="shared" si="2"/>
         <v>44050</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <f t="shared" si="3"/>
         <v>44056</v>
       </c>
@@ -972,11 +970,11 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <f t="shared" si="2"/>
         <v>44057</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <f t="shared" si="3"/>
         <v>44063</v>
       </c>
@@ -990,11 +988,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <f t="shared" si="2"/>
         <v>44064</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <f t="shared" si="3"/>
         <v>44070</v>
       </c>
@@ -1008,11 +1006,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <f t="shared" si="2"/>
         <v>44071</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <f t="shared" si="3"/>
         <v>44077</v>
       </c>
@@ -1026,11 +1024,11 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <f t="shared" si="2"/>
         <v>44078</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <f t="shared" si="3"/>
         <v>44084</v>
       </c>
@@ -1044,11 +1042,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <f t="shared" si="2"/>
         <v>44085</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <f t="shared" si="3"/>
         <v>44091</v>
       </c>
@@ -1062,11 +1060,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <f t="shared" si="2"/>
         <v>44092</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <f t="shared" si="3"/>
         <v>44098</v>
       </c>
@@ -1080,11 +1078,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <f t="shared" si="2"/>
         <v>44099</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <f t="shared" si="3"/>
         <v>44105</v>
       </c>
@@ -1098,11 +1096,11 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <f t="shared" si="2"/>
         <v>44106</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <f t="shared" si="3"/>
         <v>44112</v>
       </c>
@@ -1116,11 +1114,11 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <f t="shared" si="2"/>
         <v>44113</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <f t="shared" si="3"/>
         <v>44119</v>
       </c>
@@ -1134,11 +1132,11 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <f t="shared" si="2"/>
         <v>44120</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <f t="shared" si="3"/>
         <v>44126</v>
       </c>
@@ -1152,11 +1150,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <f t="shared" si="2"/>
         <v>44127</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <f t="shared" si="3"/>
         <v>44133</v>
       </c>
@@ -1170,11 +1168,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <f t="shared" si="2"/>
         <v>44134</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <f t="shared" si="3"/>
         <v>44140</v>
       </c>
@@ -1188,11 +1186,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <f t="shared" si="2"/>
         <v>44141</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <f t="shared" si="3"/>
         <v>44147</v>
       </c>
@@ -1206,11 +1204,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <f t="shared" si="2"/>
         <v>44148</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <f t="shared" si="3"/>
         <v>44154</v>
       </c>
@@ -1224,11 +1222,11 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <f t="shared" si="2"/>
         <v>44155</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <f t="shared" si="3"/>
         <v>44161</v>
       </c>
@@ -1242,11 +1240,11 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <f t="shared" si="2"/>
         <v>44162</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <f t="shared" si="3"/>
         <v>44168</v>
       </c>
@@ -1260,11 +1258,11 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <f t="shared" si="2"/>
         <v>44169</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <f t="shared" si="3"/>
         <v>44175</v>
       </c>
@@ -1278,11 +1276,11 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <f t="shared" si="2"/>
         <v>44176</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <f t="shared" si="3"/>
         <v>44182</v>
       </c>
@@ -1296,11 +1294,11 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <f t="shared" si="2"/>
         <v>44183</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <f t="shared" si="3"/>
         <v>44189</v>
       </c>
@@ -1314,11 +1312,11 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <f t="shared" si="2"/>
         <v>44190</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <f t="shared" si="3"/>
         <v>44196</v>
       </c>
@@ -1332,6 +1330,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/essensplan/Java-Generator.xlsx
+++ b/essensplan/Java-Generator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannes Kainz\Documents\GitHub\home-info\essensplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5933A7CB-CA5F-4085-980F-87145DA46263}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40689F2-590A-45B7-AB06-2AB83B3234D6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{C4B9780C-E6E3-4540-B6DD-E6B2DF04E1D5}"/>
   </bookViews>
@@ -397,14 +397,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
-        <v>43831</v>
+        <v>44197</v>
       </c>
       <c r="B1" s="2">
-        <v>43839</v>
+        <v>44203</v>
       </c>
       <c r="D1" t="str">
         <f>"var KW"&amp;ROW()&amp;" = "&amp;CHAR(34)&amp;TEXT(A1,"TT.MM.")&amp;" - "&amp;TEXT(B1,"TT.MM.")&amp;CHAR(34)&amp;";"</f>
-        <v>var KW1 = "01.01. - 09.01.";</v>
+        <v>var KW1 = "01.01. - 07.01.";</v>
       </c>
       <c r="F1" t="str">
         <f>"&lt;a href=#"&amp;ROW()&amp;"&gt;&lt;script&gt;document.writeln(KW"&amp;ROW()&amp;");&lt;/script&gt;&lt;/a&gt;&lt;br&gt;"</f>
@@ -414,15 +414,15 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>B1+1</f>
-        <v>43840</v>
+        <v>44204</v>
       </c>
       <c r="B2" s="1">
         <f>A2+6</f>
-        <v>43846</v>
+        <v>44210</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D52" si="0">"var KW"&amp;ROW()&amp;" = "&amp;CHAR(34)&amp;TEXT(A2,"TT.MM.")&amp;" - "&amp;TEXT(B2,"TT.MM.")&amp;CHAR(34)&amp;";"</f>
-        <v>var KW2 = "10.01. - 16.01.";</v>
+        <v>var KW2 = "08.01. - 14.01.";</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F52" si="1">"&lt;a href=#"&amp;ROW()&amp;"&gt;&lt;script&gt;document.writeln(KW"&amp;ROW()&amp;");&lt;/script&gt;&lt;/a&gt;&lt;br&gt;"</f>
@@ -432,15 +432,15 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A52" si="2">B2+1</f>
-        <v>43847</v>
+        <v>44211</v>
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B52" si="3">A3+6</f>
-        <v>43853</v>
+        <v>44217</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>var KW3 = "17.01. - 23.01.";</v>
+        <v>var KW3 = "15.01. - 21.01.";</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" si="1"/>
@@ -450,15 +450,15 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" si="2"/>
-        <v>43854</v>
+        <v>44218</v>
       </c>
       <c r="B4" s="1">
         <f t="shared" si="3"/>
-        <v>43860</v>
+        <v>44224</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>var KW4 = "24.01. - 30.01.";</v>
+        <v>var KW4 = "22.01. - 28.01.";</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="1"/>
@@ -468,15 +468,15 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="2"/>
-        <v>43861</v>
+        <v>44225</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" si="3"/>
-        <v>43867</v>
+        <v>44231</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>var KW5 = "31.01. - 06.02.";</v>
+        <v>var KW5 = "29.01. - 04.02.";</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="1"/>
@@ -486,15 +486,15 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="2"/>
-        <v>43868</v>
+        <v>44232</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="3"/>
-        <v>43874</v>
+        <v>44238</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>var KW6 = "07.02. - 13.02.";</v>
+        <v>var KW6 = "05.02. - 11.02.";</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="1"/>
@@ -504,15 +504,15 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="2"/>
-        <v>43875</v>
+        <v>44239</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="3"/>
-        <v>43881</v>
+        <v>44245</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>var KW7 = "14.02. - 20.02.";</v>
+        <v>var KW7 = "12.02. - 18.02.";</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
@@ -522,15 +522,15 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="2"/>
-        <v>43882</v>
+        <v>44246</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="3"/>
-        <v>43888</v>
+        <v>44252</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>var KW8 = "21.02. - 27.02.";</v>
+        <v>var KW8 = "19.02. - 25.02.";</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -540,15 +540,15 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="2"/>
-        <v>43889</v>
+        <v>44253</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="3"/>
-        <v>43895</v>
+        <v>44259</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>var KW9 = "28.02. - 05.03.";</v>
+        <v>var KW9 = "26.02. - 04.03.";</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
@@ -558,15 +558,15 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="2"/>
-        <v>43896</v>
+        <v>44260</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="3"/>
-        <v>43902</v>
+        <v>44266</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>var KW10 = "06.03. - 12.03.";</v>
+        <v>var KW10 = "05.03. - 11.03.";</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
@@ -576,15 +576,15 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="2"/>
-        <v>43903</v>
+        <v>44267</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="3"/>
-        <v>43909</v>
+        <v>44273</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>var KW11 = "13.03. - 19.03.";</v>
+        <v>var KW11 = "12.03. - 18.03.";</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
@@ -594,15 +594,15 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="2"/>
-        <v>43910</v>
+        <v>44274</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="3"/>
-        <v>43916</v>
+        <v>44280</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>var KW12 = "20.03. - 26.03.";</v>
+        <v>var KW12 = "19.03. - 25.03.";</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
@@ -612,15 +612,15 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="2"/>
-        <v>43917</v>
+        <v>44281</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="3"/>
-        <v>43923</v>
+        <v>44287</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>var KW13 = "27.03. - 02.04.";</v>
+        <v>var KW13 = "26.03. - 01.04.";</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
@@ -630,15 +630,15 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="2"/>
-        <v>43924</v>
+        <v>44288</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="3"/>
-        <v>43930</v>
+        <v>44294</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>var KW14 = "03.04. - 09.04.";</v>
+        <v>var KW14 = "02.04. - 08.04.";</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
@@ -648,15 +648,15 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="2"/>
-        <v>43931</v>
+        <v>44295</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="3"/>
-        <v>43937</v>
+        <v>44301</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>var KW15 = "10.04. - 16.04.";</v>
+        <v>var KW15 = "09.04. - 15.04.";</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
@@ -666,15 +666,15 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="2"/>
-        <v>43938</v>
+        <v>44302</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="3"/>
-        <v>43944</v>
+        <v>44308</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>var KW16 = "17.04. - 23.04.";</v>
+        <v>var KW16 = "16.04. - 22.04.";</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
@@ -684,15 +684,15 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="2"/>
-        <v>43945</v>
+        <v>44309</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="3"/>
-        <v>43951</v>
+        <v>44315</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>var KW17 = "24.04. - 30.04.";</v>
+        <v>var KW17 = "23.04. - 29.04.";</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
@@ -702,15 +702,15 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="2"/>
-        <v>43952</v>
+        <v>44316</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="3"/>
-        <v>43958</v>
+        <v>44322</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>var KW18 = "01.05. - 07.05.";</v>
+        <v>var KW18 = "30.04. - 06.05.";</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
@@ -720,15 +720,15 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="2"/>
-        <v>43959</v>
+        <v>44323</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="3"/>
-        <v>43965</v>
+        <v>44329</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v>var KW19 = "08.05. - 14.05.";</v>
+        <v>var KW19 = "07.05. - 13.05.";</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
@@ -738,15 +738,15 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="2"/>
-        <v>43966</v>
+        <v>44330</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="3"/>
-        <v>43972</v>
+        <v>44336</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v>var KW20 = "15.05. - 21.05.";</v>
+        <v>var KW20 = "14.05. - 20.05.";</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
@@ -756,15 +756,15 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="2"/>
-        <v>43973</v>
+        <v>44337</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="3"/>
-        <v>43979</v>
+        <v>44343</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>var KW21 = "22.05. - 28.05.";</v>
+        <v>var KW21 = "21.05. - 27.05.";</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
@@ -774,15 +774,15 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="2"/>
-        <v>43980</v>
+        <v>44344</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="3"/>
-        <v>43986</v>
+        <v>44350</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
-        <v>var KW22 = "29.05. - 04.06.";</v>
+        <v>var KW22 = "28.05. - 03.06.";</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
@@ -792,15 +792,15 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="2"/>
-        <v>43987</v>
+        <v>44351</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="3"/>
-        <v>43993</v>
+        <v>44357</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
-        <v>var KW23 = "05.06. - 11.06.";</v>
+        <v>var KW23 = "04.06. - 10.06.";</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
@@ -810,15 +810,15 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="2"/>
-        <v>43994</v>
+        <v>44358</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="3"/>
-        <v>44000</v>
+        <v>44364</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
-        <v>var KW24 = "12.06. - 18.06.";</v>
+        <v>var KW24 = "11.06. - 17.06.";</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
@@ -828,15 +828,15 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="2"/>
-        <v>44001</v>
+        <v>44365</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="3"/>
-        <v>44007</v>
+        <v>44371</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
-        <v>var KW25 = "19.06. - 25.06.";</v>
+        <v>var KW25 = "18.06. - 24.06.";</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
@@ -846,15 +846,15 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="2"/>
-        <v>44008</v>
+        <v>44372</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="3"/>
-        <v>44014</v>
+        <v>44378</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
-        <v>var KW26 = "26.06. - 02.07.";</v>
+        <v>var KW26 = "25.06. - 01.07.";</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
@@ -864,15 +864,15 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="2"/>
-        <v>44015</v>
+        <v>44379</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="3"/>
-        <v>44021</v>
+        <v>44385</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
-        <v>var KW27 = "03.07. - 09.07.";</v>
+        <v>var KW27 = "02.07. - 08.07.";</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
@@ -882,15 +882,15 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="2"/>
-        <v>44022</v>
+        <v>44386</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="3"/>
-        <v>44028</v>
+        <v>44392</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
-        <v>var KW28 = "10.07. - 16.07.";</v>
+        <v>var KW28 = "09.07. - 15.07.";</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="1"/>
@@ -900,15 +900,15 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="2"/>
-        <v>44029</v>
+        <v>44393</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="3"/>
-        <v>44035</v>
+        <v>44399</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
-        <v>var KW29 = "17.07. - 23.07.";</v>
+        <v>var KW29 = "16.07. - 22.07.";</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
@@ -918,15 +918,15 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="2"/>
-        <v>44036</v>
+        <v>44400</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="3"/>
-        <v>44042</v>
+        <v>44406</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>var KW30 = "24.07. - 30.07.";</v>
+        <v>var KW30 = "23.07. - 29.07.";</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
@@ -936,15 +936,15 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="2"/>
-        <v>44043</v>
+        <v>44407</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="3"/>
-        <v>44049</v>
+        <v>44413</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
-        <v>var KW31 = "31.07. - 06.08.";</v>
+        <v>var KW31 = "30.07. - 05.08.";</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
@@ -954,15 +954,15 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="2"/>
-        <v>44050</v>
+        <v>44414</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="3"/>
-        <v>44056</v>
+        <v>44420</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
-        <v>var KW32 = "07.08. - 13.08.";</v>
+        <v>var KW32 = "06.08. - 12.08.";</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="1"/>
@@ -972,15 +972,15 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="2"/>
-        <v>44057</v>
+        <v>44421</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="3"/>
-        <v>44063</v>
+        <v>44427</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
-        <v>var KW33 = "14.08. - 20.08.";</v>
+        <v>var KW33 = "13.08. - 19.08.";</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="1"/>
@@ -990,15 +990,15 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="2"/>
-        <v>44064</v>
+        <v>44428</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="3"/>
-        <v>44070</v>
+        <v>44434</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
-        <v>var KW34 = "21.08. - 27.08.";</v>
+        <v>var KW34 = "20.08. - 26.08.";</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
@@ -1008,15 +1008,15 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="2"/>
-        <v>44071</v>
+        <v>44435</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="3"/>
-        <v>44077</v>
+        <v>44441</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
-        <v>var KW35 = "28.08. - 03.09.";</v>
+        <v>var KW35 = "27.08. - 02.09.";</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
@@ -1026,15 +1026,15 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="2"/>
-        <v>44078</v>
+        <v>44442</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="3"/>
-        <v>44084</v>
+        <v>44448</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
-        <v>var KW36 = "04.09. - 10.09.";</v>
+        <v>var KW36 = "03.09. - 09.09.";</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="1"/>
@@ -1044,15 +1044,15 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="2"/>
-        <v>44085</v>
+        <v>44449</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="3"/>
-        <v>44091</v>
+        <v>44455</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
-        <v>var KW37 = "11.09. - 17.09.";</v>
+        <v>var KW37 = "10.09. - 16.09.";</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="1"/>
@@ -1062,15 +1062,15 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="2"/>
-        <v>44092</v>
+        <v>44456</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="3"/>
-        <v>44098</v>
+        <v>44462</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
-        <v>var KW38 = "18.09. - 24.09.";</v>
+        <v>var KW38 = "17.09. - 23.09.";</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
@@ -1080,15 +1080,15 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="2"/>
-        <v>44099</v>
+        <v>44463</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="3"/>
-        <v>44105</v>
+        <v>44469</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
-        <v>var KW39 = "25.09. - 01.10.";</v>
+        <v>var KW39 = "24.09. - 30.09.";</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="1"/>
@@ -1098,15 +1098,15 @@
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="2"/>
-        <v>44106</v>
+        <v>44470</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="3"/>
-        <v>44112</v>
+        <v>44476</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>var KW40 = "02.10. - 08.10.";</v>
+        <v>var KW40 = "01.10. - 07.10.";</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="1"/>
@@ -1116,15 +1116,15 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="2"/>
-        <v>44113</v>
+        <v>44477</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="3"/>
-        <v>44119</v>
+        <v>44483</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
-        <v>var KW41 = "09.10. - 15.10.";</v>
+        <v>var KW41 = "08.10. - 14.10.";</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
@@ -1134,15 +1134,15 @@
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="2"/>
-        <v>44120</v>
+        <v>44484</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="3"/>
-        <v>44126</v>
+        <v>44490</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
-        <v>var KW42 = "16.10. - 22.10.";</v>
+        <v>var KW42 = "15.10. - 21.10.";</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="1"/>
@@ -1152,15 +1152,15 @@
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="2"/>
-        <v>44127</v>
+        <v>44491</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="3"/>
-        <v>44133</v>
+        <v>44497</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
-        <v>var KW43 = "23.10. - 29.10.";</v>
+        <v>var KW43 = "22.10. - 28.10.";</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
@@ -1170,15 +1170,15 @@
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="2"/>
-        <v>44134</v>
+        <v>44498</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="3"/>
-        <v>44140</v>
+        <v>44504</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
-        <v>var KW44 = "30.10. - 05.11.";</v>
+        <v>var KW44 = "29.10. - 04.11.";</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="1"/>
@@ -1188,15 +1188,15 @@
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="2"/>
-        <v>44141</v>
+        <v>44505</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="3"/>
-        <v>44147</v>
+        <v>44511</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
-        <v>var KW45 = "06.11. - 12.11.";</v>
+        <v>var KW45 = "05.11. - 11.11.";</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="1"/>
@@ -1206,15 +1206,15 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="2"/>
-        <v>44148</v>
+        <v>44512</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="3"/>
-        <v>44154</v>
+        <v>44518</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
-        <v>var KW46 = "13.11. - 19.11.";</v>
+        <v>var KW46 = "12.11. - 18.11.";</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="1"/>
@@ -1224,15 +1224,15 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="2"/>
-        <v>44155</v>
+        <v>44519</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="3"/>
-        <v>44161</v>
+        <v>44525</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
-        <v>var KW47 = "20.11. - 26.11.";</v>
+        <v>var KW47 = "19.11. - 25.11.";</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="1"/>
@@ -1242,15 +1242,15 @@
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="2"/>
-        <v>44162</v>
+        <v>44526</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="3"/>
-        <v>44168</v>
+        <v>44532</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
-        <v>var KW48 = "27.11. - 03.12.";</v>
+        <v>var KW48 = "26.11. - 02.12.";</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="1"/>
@@ -1260,15 +1260,15 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="2"/>
-        <v>44169</v>
+        <v>44533</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="3"/>
-        <v>44175</v>
+        <v>44539</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
-        <v>var KW49 = "04.12. - 10.12.";</v>
+        <v>var KW49 = "03.12. - 09.12.";</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="1"/>
@@ -1278,15 +1278,15 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="2"/>
-        <v>44176</v>
+        <v>44540</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="3"/>
-        <v>44182</v>
+        <v>44546</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
-        <v>var KW50 = "11.12. - 17.12.";</v>
+        <v>var KW50 = "10.12. - 16.12.";</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="1"/>
@@ -1296,15 +1296,15 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="2"/>
-        <v>44183</v>
+        <v>44547</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="3"/>
-        <v>44189</v>
+        <v>44553</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
-        <v>var KW51 = "18.12. - 24.12.";</v>
+        <v>var KW51 = "17.12. - 23.12.";</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="1"/>
@@ -1314,15 +1314,15 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="2"/>
-        <v>44190</v>
+        <v>44554</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="3"/>
-        <v>44196</v>
+        <v>44560</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
-        <v>var KW52 = "25.12. - 31.12.";</v>
+        <v>var KW52 = "24.12. - 30.12.";</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="1"/>
